--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220427_110430.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220427_110430.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>melon</t>
+    <t>Melon</t>
   </si>
   <si>
     <t>2022-04-27</t>

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220427_110430.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220427_110430.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="270">
   <si>
     <t>사이트</t>
   </si>
@@ -751,7 +751,7 @@
     <t>SHOFAR</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SONY MUSIC</t>
@@ -800,9 +800,6 @@
   </si>
   <si>
     <t>플레디스</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>iMe KOREA</t>
@@ -1291,7 +1288,7 @@
         <v>231</v>
       </c>
       <c r="H4" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1317,7 +1314,7 @@
         <v>232</v>
       </c>
       <c r="H5" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1369,7 +1366,7 @@
         <v>234</v>
       </c>
       <c r="H7" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1395,7 +1392,7 @@
         <v>235</v>
       </c>
       <c r="H8" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1421,7 +1418,7 @@
         <v>234</v>
       </c>
       <c r="H9" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1447,7 +1444,7 @@
         <v>232</v>
       </c>
       <c r="H10" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1525,7 +1522,7 @@
         <v>234</v>
       </c>
       <c r="H13" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1551,7 +1548,7 @@
         <v>237</v>
       </c>
       <c r="H14" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1577,7 +1574,7 @@
         <v>234</v>
       </c>
       <c r="H15" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1603,7 +1600,7 @@
         <v>234</v>
       </c>
       <c r="H16" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1655,7 +1652,7 @@
         <v>234</v>
       </c>
       <c r="H18" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1681,7 +1678,7 @@
         <v>238</v>
       </c>
       <c r="H19" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1707,7 +1704,7 @@
         <v>234</v>
       </c>
       <c r="H20" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1733,7 +1730,7 @@
         <v>239</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1759,7 +1756,7 @@
         <v>234</v>
       </c>
       <c r="H22" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1785,7 +1782,7 @@
         <v>240</v>
       </c>
       <c r="H23" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1811,7 +1808,7 @@
         <v>241</v>
       </c>
       <c r="H24" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1837,7 +1834,7 @@
         <v>234</v>
       </c>
       <c r="H25" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1863,7 +1860,7 @@
         <v>242</v>
       </c>
       <c r="H26" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1889,7 +1886,7 @@
         <v>243</v>
       </c>
       <c r="H27" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1915,7 +1912,7 @@
         <v>231</v>
       </c>
       <c r="H28" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1941,7 +1938,7 @@
         <v>244</v>
       </c>
       <c r="H29" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1967,7 +1964,7 @@
         <v>245</v>
       </c>
       <c r="H30" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1993,7 +1990,7 @@
         <v>246</v>
       </c>
       <c r="H31" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2019,7 +2016,7 @@
         <v>245</v>
       </c>
       <c r="H32" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2045,7 +2042,7 @@
         <v>247</v>
       </c>
       <c r="H33" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2071,7 +2068,7 @@
         <v>248</v>
       </c>
       <c r="H34" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2097,7 +2094,7 @@
         <v>249</v>
       </c>
       <c r="H35" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2123,7 +2120,7 @@
         <v>234</v>
       </c>
       <c r="H36" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2175,7 +2172,7 @@
         <v>248</v>
       </c>
       <c r="H38" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2201,7 +2198,7 @@
         <v>250</v>
       </c>
       <c r="H39" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2305,7 +2302,7 @@
         <v>252</v>
       </c>
       <c r="H43" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2383,7 +2380,7 @@
         <v>250</v>
       </c>
       <c r="H46" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2435,7 +2432,7 @@
         <v>245</v>
       </c>
       <c r="H48" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2461,7 +2458,7 @@
         <v>253</v>
       </c>
       <c r="H49" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2513,7 +2510,7 @@
         <v>254</v>
       </c>
       <c r="H51" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2539,7 +2536,7 @@
         <v>243</v>
       </c>
       <c r="H52" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2565,7 +2562,7 @@
         <v>239</v>
       </c>
       <c r="H53" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2591,7 +2588,7 @@
         <v>248</v>
       </c>
       <c r="H54" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2617,7 +2614,7 @@
         <v>255</v>
       </c>
       <c r="H55" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2643,7 +2640,7 @@
         <v>256</v>
       </c>
       <c r="H56" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2695,7 +2692,7 @@
         <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2721,7 +2718,7 @@
         <v>257</v>
       </c>
       <c r="H59" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2747,7 +2744,7 @@
         <v>237</v>
       </c>
       <c r="H60" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2799,7 +2796,7 @@
         <v>258</v>
       </c>
       <c r="H62" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2877,7 +2874,7 @@
         <v>248</v>
       </c>
       <c r="H65" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2903,7 +2900,7 @@
         <v>245</v>
       </c>
       <c r="H66" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2955,7 +2952,7 @@
         <v>243</v>
       </c>
       <c r="H68" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2981,7 +2978,7 @@
         <v>259</v>
       </c>
       <c r="H69" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3007,7 +3004,7 @@
         <v>248</v>
       </c>
       <c r="H70" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3059,7 +3056,7 @@
         <v>248</v>
       </c>
       <c r="H72" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3085,7 +3082,7 @@
         <v>243</v>
       </c>
       <c r="H73" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3111,7 +3108,7 @@
         <v>260</v>
       </c>
       <c r="H74" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3163,7 +3160,7 @@
         <v>256</v>
       </c>
       <c r="H76" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3215,7 +3212,7 @@
         <v>247</v>
       </c>
       <c r="H78" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3241,7 +3238,7 @@
         <v>243</v>
       </c>
       <c r="H79" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3293,7 +3290,7 @@
         <v>245</v>
       </c>
       <c r="H81" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3319,7 +3316,7 @@
         <v>232</v>
       </c>
       <c r="H82" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3342,10 +3339,10 @@
         <v>218</v>
       </c>
       <c r="G83" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H83" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3371,7 +3368,7 @@
         <v>252</v>
       </c>
       <c r="H84" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3394,10 +3391,10 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H85" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3423,7 +3420,7 @@
         <v>249</v>
       </c>
       <c r="H86" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3472,10 +3469,10 @@
         <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H88" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3524,10 +3521,10 @@
         <v>223</v>
       </c>
       <c r="G90" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H90" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3550,10 +3547,10 @@
         <v>224</v>
       </c>
       <c r="G91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H91" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3576,10 +3573,10 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H92" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3605,7 +3602,7 @@
         <v>243</v>
       </c>
       <c r="H93" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3631,7 +3628,7 @@
         <v>245</v>
       </c>
       <c r="H94" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3680,10 +3677,10 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H96" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3709,7 +3706,7 @@
         <v>248</v>
       </c>
       <c r="H97" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3732,10 +3729,10 @@
         <v>228</v>
       </c>
       <c r="G98" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H98" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3810,10 +3807,10 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H101" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
